--- a/biology/Médecine/Ministère_de_la_santé_du_Gabon/Ministère_de_la_santé_du_Gabon.xlsx
+++ b/biology/Médecine/Ministère_de_la_santé_du_Gabon/Ministère_de_la_santé_du_Gabon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_sant%C3%A9_du_Gabon</t>
+          <t>Ministère_de_la_santé_du_Gabon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé et des affaires sociales est le département ministériel du gouvernement gabonais chargé de la mise en œuvre de la politique du gouvernement dans le domaine de la santé publique.
 Le siège central du ministère est à coté de l'immeuble Alu-Suisse à Libreville. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_sant%C3%A9_du_Gabon</t>
+          <t>Ministère_de_la_santé_du_Gabon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_sant%C3%A9_du_Gabon</t>
+          <t>Ministère_de_la_santé_du_Gabon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
